--- a/sumulate2.xlsx
+++ b/sumulate2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeuMi\OneDrive\ドキュメント\work2019\excel\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1BB680-3B02-4589-9DE6-3CA6A42866DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BF923B-77D6-491F-B2F0-AC47C21D0B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{EEC7D1F1-B29A-489C-B0F1-E2E1BF5A3E10}"/>
   </bookViews>
@@ -1106,6 +1106,390 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188109E-2"/>
+          <c:y val="2.7777777777777776E-2"/>
+          <c:w val="0.88386351706036748"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>33.72233981142967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.858655274888555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.981812276713224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.696329977265354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.93771379703535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.306221764839268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.020379281064255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.18598192193102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.467484206614643</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.783116276656465</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.980491779705698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1078423201933489</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.988894764674775</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.432869713312519</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.000196579516412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.148902821316614</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.171180646857742</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.254817371297094</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.24439626534252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.814013725333123</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.792046741787395</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.744292656092416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BAA-45A9-BAC0-F0AE25BB91D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="753259176"/>
+        <c:axId val="753259504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="753259176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="753259504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="753259504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="753259176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1186,6 +1570,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1703,6 +2127,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2260,16 +3200,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>614362</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2289,6 +3229,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B23411-9443-4145-A904-1C8959971FBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2596,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970142BC-36F5-4C9A-A7B7-D28000675EC4}">
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2633,8 +3609,8 @@
         <v>3.5051000000000001E-3</v>
       </c>
       <c r="I2">
-        <f>H2/G2</f>
-        <v>0.33722339811429669</v>
+        <f>H2/G2*100</f>
+        <v>33.72233981142967</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -2668,8 +3644,8 @@
         <v>3.1075E-3</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I23" si="3">H3/G3</f>
-        <v>0.28858655274888556</v>
+        <f t="shared" ref="I3:I23" si="3">H3/G3*100</f>
+        <v>28.858655274888555</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -2704,7 +3680,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0.28981812276713226</v>
+        <v>28.981812276713224</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -2739,7 +3715,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>0.24696329977265352</v>
+        <v>24.696329977265354</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -2774,7 +3750,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>0.21937713797035349</v>
+        <v>21.93771379703535</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -2809,7 +3785,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0.2430622176483927</v>
+        <v>24.306221764839268</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -2844,7 +3820,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0.26020379281064254</v>
+        <v>26.020379281064255</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2879,7 +3855,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0.2918598192193102</v>
+        <v>29.18598192193102</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -2914,7 +3890,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.17467484206614642</v>
+        <v>17.467484206614643</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -2949,7 +3925,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0.19783116276656465</v>
+        <v>19.783116276656465</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -2984,7 +3960,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>8.9804917797056988E-2</v>
+        <v>8.980491779705698</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -3019,7 +3995,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>9.1078423201933489E-2</v>
+        <v>9.1078423201933489</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -3054,7 +4030,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.10988894764674775</v>
+        <v>10.988894764674775</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -3089,7 +4065,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>0.14432869713312518</v>
+        <v>14.432869713312519</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -3124,7 +4100,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0.18000196579516414</v>
+        <v>18.000196579516412</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -3159,7 +4135,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>0.20148902821316614</v>
+        <v>20.148902821316614</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3194,7 +4170,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>0.21171180646857743</v>
+        <v>21.171180646857742</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -3229,7 +4205,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>0.22254817371297095</v>
+        <v>22.254817371297094</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -3264,7 +4240,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>0.23244396265342521</v>
+        <v>23.24439626534252</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -3299,7 +4275,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>0.24814013725333123</v>
+        <v>24.814013725333123</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -3334,7 +4310,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>0.25792046741787394</v>
+        <v>25.792046741787395</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -3369,7 +4345,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>0.26744292656092417</v>
+        <v>26.744292656092416</v>
       </c>
     </row>
   </sheetData>

--- a/sumulate2.xlsx
+++ b/sumulate2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeuMi\OneDrive\ドキュメント\work2019\excel\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BF923B-77D6-491F-B2F0-AC47C21D0B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4361B0D3-714F-4D0F-B93D-ED7E5AB8A665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{EEC7D1F1-B29A-489C-B0F1-E2E1BF5A3E10}"/>
+    <workbookView minimized="1" xWindow="6615" yWindow="4785" windowWidth="14670" windowHeight="8340" xr2:uid="{EEC7D1F1-B29A-489C-B0F1-E2E1BF5A3E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,15 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>送電側</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="flat">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:bevel/>
             </a:ln>
@@ -287,6 +292,181 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F46-4E8A-92CB-4B22138C64B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>受電側</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3.5051000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1075E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9235000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30416000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0783E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3935000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5965000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7797000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8203E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8128000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8736E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1857000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.117E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0847000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1567000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7996999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0257000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66471999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2926000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14585000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87A7-446B-A9D5-C0536884C6A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -311,12 +491,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -424,7 +599,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="505200552"/>
-        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="5"/>
@@ -469,7 +644,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>一次側電力</a:t>
+                  <a:t>電力</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -559,6 +734,44 @@
         </a:effectLst>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80325931433976616"/>
+          <c:y val="0.54716924535376477"/>
+          <c:w val="0.1351110732847389"/>
+          <c:h val="0.12129464948956854"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -623,7 +836,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17680314960629923"/>
+          <c:y val="6.0185185185185182E-2"/>
+          <c:w val="0.76808573928258972"/>
+          <c:h val="0.72255431612715082"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1127,10 +1350,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.2692038495188109E-2"/>
-          <c:y val="2.7777777777777776E-2"/>
-          <c:w val="0.88386351706036748"/>
-          <c:h val="0.8416746864975212"/>
+          <c:x val="5.2691961044358145E-2"/>
+          <c:y val="9.7133170035373015E-2"/>
+          <c:w val="0.87373024680965827"/>
+          <c:h val="0.81607478155174273"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1142,7 +1365,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1329,6 +1552,123 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="753259504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="753259504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1340,7 +1680,809 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>効率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="753259176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.11820017327304214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9678271266716181E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25861920185125048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5116357258850313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7530864381413924E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33870720029303525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1960267336541186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16868621971418474</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9263545707915274E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5429065739635773E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6825849398456594E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9907010959246602E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4252384981491274E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3386812631280163E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16482240001965795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36261980407523509</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8522882193005521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5831166522864537</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.451015085498479</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230.58670394403057</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.157897340964645</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.900655083891079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62D9-456B-851E-A70FEE6425C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="733598632"/>
+        <c:axId val="733599288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="733598632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="733599288"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="733599288"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>最適動作度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="733598632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47615966754155731"/>
+          <c:y val="6.4814814814814811E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.93E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA7F-4966-A2C6-37430CDD4CED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415525200"/>
+        <c:axId val="415530776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415525200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1377,12 +2519,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753259504"/>
+        <c:crossAx val="415530776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="753259504"/>
+        <c:axId val="415530776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +2581,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753259176"/>
+        <c:crossAx val="415525200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1467,7 +2609,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1610,6 +2757,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3158,20 +4385,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3200,16 +5459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3236,16 +5495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3265,6 +5524,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E06F91-4A27-460D-9A1A-3D4D106EE72F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1FA37E-2A50-4BAE-95F4-B51471A5D6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3570,15 +5901,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970142BC-36F5-4C9A-A7B7-D28000675EC4}">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="J21" sqref="J2:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -3612,8 +5943,18 @@
         <f>H2/G2*100</f>
         <v>33.72233981142967</v>
       </c>
+      <c r="J2">
+        <f>I2*H2</f>
+        <v>0.11820017327304214</v>
+      </c>
+      <c r="K2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L2">
+        <v>2.8000000000000001E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -3647,8 +5988,18 @@
         <f t="shared" ref="I3:I23" si="3">H3/G3*100</f>
         <v>28.858655274888555</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J23" si="4">I3*H3</f>
+        <v>8.9678271266716181E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L3">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>15000</v>
       </c>
@@ -3671,7 +6022,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G23" si="4">D4/1000</f>
+        <f t="shared" ref="G4:G23" si="5">D4/1000</f>
         <v>3.0789999999999998E-2</v>
       </c>
       <c r="H4">
@@ -3682,13 +6033,23 @@
         <f t="shared" si="3"/>
         <v>28.981812276713224</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>0.25861920185125048</v>
+      </c>
+      <c r="K4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>4.4999999999999997E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>20000</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B23" si="5">1/A5*1000000</f>
+        <f t="shared" ref="B5:B23" si="6">1/A5*1000000</f>
         <v>50</v>
       </c>
       <c r="C5">
@@ -3706,7 +6067,7 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2315999999999998</v>
       </c>
       <c r="H5">
@@ -3717,13 +6078,23 @@
         <f t="shared" si="3"/>
         <v>24.696329977265354</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>7.5116357258850313</v>
+      </c>
+      <c r="K5">
+        <v>0.02</v>
+      </c>
+      <c r="L5">
+        <v>3.8E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>25000</v>
       </c>
       <c r="B6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="C6">
@@ -3741,7 +6112,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4031999999999999E-2</v>
       </c>
       <c r="H6">
@@ -3752,13 +6123,23 @@
         <f t="shared" si="3"/>
         <v>21.93771379703535</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>6.7530864381413924E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.05</v>
+      </c>
+      <c r="L6">
+        <v>1.0999999999999999E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>30000</v>
       </c>
       <c r="B7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.333333333333336</v>
       </c>
       <c r="C7">
@@ -3776,7 +6157,7 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7331E-2</v>
       </c>
       <c r="H7">
@@ -3787,13 +6168,23 @@
         <f t="shared" si="3"/>
         <v>24.306221764839268</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.33870720029303525</v>
+      </c>
+      <c r="K7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L7">
+        <v>3.0999999999999999E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>35000</v>
       </c>
       <c r="B8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.571428571428569</v>
       </c>
       <c r="C8">
@@ -3811,7 +6202,7 @@
         <v>35</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17665</v>
       </c>
       <c r="H8">
@@ -3822,13 +6213,23 @@
         <f t="shared" si="3"/>
         <v>26.020379281064255</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>1.1960267336541186</v>
+      </c>
+      <c r="K8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>40000</v>
       </c>
       <c r="B9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="C9">
@@ -3846,7 +6247,7 @@
         <v>40</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9803000000000001E-2</v>
       </c>
       <c r="H9">
@@ -3857,13 +6258,23 @@
         <f t="shared" si="3"/>
         <v>29.18598192193102</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.16868621971418474</v>
+      </c>
+      <c r="K9">
+        <v>0.498</v>
+      </c>
+      <c r="L9">
+        <v>9.8000000000000004E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>45000</v>
       </c>
       <c r="B10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.222222222222225</v>
       </c>
       <c r="C10">
@@ -3881,7 +6292,7 @@
         <v>45</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6146000000000001E-2</v>
       </c>
       <c r="H10">
@@ -3892,13 +6303,23 @@
         <f t="shared" si="3"/>
         <v>17.467484206614643</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>4.9263545707915274E-2</v>
+      </c>
+      <c r="K10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L10">
+        <v>9.2999999999999992E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>50000</v>
       </c>
       <c r="B11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C11">
@@ -3916,7 +6337,7 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9272999999999998E-2</v>
       </c>
       <c r="H11">
@@ -3927,13 +6348,23 @@
         <f t="shared" si="3"/>
         <v>19.783116276656465</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>7.5429065739635773E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L11">
+        <v>4.1999999999999997E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>55000</v>
       </c>
       <c r="B12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.181818181818183</v>
       </c>
       <c r="C12">
@@ -3951,7 +6382,7 @@
         <v>55</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0863E-2</v>
       </c>
       <c r="H12">
@@ -3962,13 +6393,23 @@
         <f t="shared" si="3"/>
         <v>8.980491779705698</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>1.6825849398456594E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L12">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>60000</v>
       </c>
       <c r="B13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="C13">
@@ -3986,7 +6427,7 @@
         <v>60</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3998000000000002E-2</v>
       </c>
       <c r="H13">
@@ -3997,13 +6438,23 @@
         <f t="shared" si="3"/>
         <v>9.1078423201933489</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>1.9907010959246602E-2</v>
+      </c>
+      <c r="K13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L13">
+        <v>2.5999999999999999E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>65000</v>
       </c>
       <c r="B14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.384615384615383</v>
       </c>
       <c r="C14">
@@ -4021,7 +6472,7 @@
         <v>65</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8364999999999998E-2</v>
       </c>
       <c r="H14">
@@ -4032,13 +6483,23 @@
         <f t="shared" si="3"/>
         <v>10.988894764674775</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>3.4252384981491274E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.93E-2</v>
+      </c>
+      <c r="L14">
+        <v>2.3999999999999998E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>70000</v>
       </c>
       <c r="B15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.285714285714285</v>
       </c>
       <c r="C15">
@@ -4056,7 +6517,7 @@
         <v>70</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5229999999999997E-2</v>
       </c>
       <c r="H15">
@@ -4067,13 +6528,23 @@
         <f t="shared" si="3"/>
         <v>14.432869713312519</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>7.3386812631280163E-2</v>
+      </c>
+      <c r="K15">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L15">
+        <v>2.8E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>75000</v>
       </c>
       <c r="B16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.333333333333334</v>
       </c>
       <c r="C16">
@@ -4091,7 +6562,7 @@
         <v>75</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0869999999999999E-2</v>
       </c>
       <c r="H16">
@@ -4102,13 +6573,23 @@
         <f t="shared" si="3"/>
         <v>18.000196579516412</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.16482240001965795</v>
+      </c>
+      <c r="K16">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L16">
+        <v>3.8E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>80000</v>
       </c>
       <c r="B17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
       <c r="C17">
@@ -4126,7 +6607,7 @@
         <v>80</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9319999999999997E-2</v>
       </c>
       <c r="H17">
@@ -4137,13 +6618,23 @@
         <f t="shared" si="3"/>
         <v>20.148902821316614</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.36261980407523509</v>
+      </c>
+      <c r="K17">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="L17">
+        <v>5.5999999999999999E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>85000</v>
       </c>
       <c r="B18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.764705882352942</v>
       </c>
       <c r="C18">
@@ -4161,7 +6652,7 @@
         <v>85</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19015000000000001</v>
       </c>
       <c r="H18">
@@ -4172,13 +6663,23 @@
         <f t="shared" si="3"/>
         <v>21.171180646857742</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.8522882193005521</v>
+      </c>
+      <c r="K18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L18">
+        <v>8.6E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>90000</v>
       </c>
       <c r="B19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.111111111111112</v>
       </c>
       <c r="C19">
@@ -4196,7 +6697,7 @@
         <v>90</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52154999999999996</v>
       </c>
       <c r="H19">
@@ -4207,13 +6708,23 @@
         <f t="shared" si="3"/>
         <v>22.254817371297094</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>2.5831166522864537</v>
+      </c>
+      <c r="K19">
+        <v>0.11</v>
+      </c>
+      <c r="L19">
+        <v>1.5100000000000001E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>95000</v>
       </c>
       <c r="B20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.526315789473685</v>
       </c>
       <c r="C20">
@@ -4231,7 +6742,7 @@
         <v>95</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8596999999999997</v>
       </c>
       <c r="H20">
@@ -4242,13 +6753,23 @@
         <f t="shared" si="3"/>
         <v>23.24439626534252</v>
       </c>
+      <c r="J20">
+        <f>I20*H20</f>
+        <v>15.451015085498479</v>
+      </c>
+      <c r="K20">
+        <v>0.185</v>
+      </c>
+      <c r="L20">
+        <v>2.7E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>100000</v>
       </c>
       <c r="B21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="C21">
@@ -4266,7 +6787,7 @@
         <v>100</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.448999999999998</v>
       </c>
       <c r="H21">
@@ -4277,13 +6798,23 @@
         <f t="shared" si="3"/>
         <v>24.814013725333123</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>230.58670394403057</v>
+      </c>
+      <c r="K21">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="L21">
+        <v>5.7000000000000002E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>105000</v>
       </c>
       <c r="B22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5238095238095237</v>
       </c>
       <c r="C22">
@@ -4301,7 +6832,7 @@
         <v>105</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6773</v>
       </c>
       <c r="H22">
@@ -4312,13 +6843,17 @@
         <f t="shared" si="3"/>
         <v>25.792046741787395</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>11.157897340964645</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>110000</v>
       </c>
       <c r="B23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090917</v>
       </c>
       <c r="C23">
@@ -4336,7 +6871,7 @@
         <v>110</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54535</v>
       </c>
       <c r="H23">
@@ -4346,6 +6881,10 @@
       <c r="I23">
         <f t="shared" si="3"/>
         <v>26.744292656092416</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>3.900655083891079</v>
       </c>
     </row>
   </sheetData>
